--- a/applicants.xlsx
+++ b/applicants.xlsx
@@ -22,7 +22,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Job</t>
+    <t>Jobs</t>
   </si>
   <si>
     <t>ahumair03@gmail.com</t>
@@ -413,8 +413,9 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
